--- a/Data/loci_table.xlsx
+++ b/Data/loci_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39cec6110fe06b54/Documents/GitHub/Premnas-biaculeatus/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{591A78CE-F7B8-4313-93E3-6927B546A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0092F55-EEE5-4A1F-999E-B8B71769B943}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{591A78CE-F7B8-4313-93E3-6927B546A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81524A7F-9CE5-459F-92A9-BD4ED0A9F40A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B4CB840-1A5A-4CC1-A9EE-8497A1DD6A3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B4CB840-1A5A-4CC1-A9EE-8497A1DD6A3E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>Locus</t>
   </si>
@@ -130,11 +131,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,27 +151,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,7 +165,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,6 +181,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46EEC6D9-0870-468F-B349-C470F4303C0F}" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17" xr:uid="{46EEC6D9-0870-468F-B349-C470F4303C0F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8D19737A-8490-4976-82DA-CD8442F7B854}" name="Locus"/>
+    <tableColumn id="2" xr3:uid="{A0036DD9-E05B-4A71-B286-7B494479B5CB}" name="Annealing Temperature"/>
+    <tableColumn id="3" xr3:uid="{D320E8C1-BCF2-4D3C-8161-8F39A9AEEBBB}" name="No. of alleles"/>
+    <tableColumn id="4" xr3:uid="{565E0293-1B2E-44BF-92A2-66EB3B69952D}" name="He (1-Qinter)"/>
+    <tableColumn id="5" xr3:uid="{B00384F2-AAD6-40C0-8F35-045AFC827DC5}" name="FIS"/>
+    <tableColumn id="6" xr3:uid="{DB0A6545-83EF-4EC9-BF61-C7790FEC1DC6}" name="p (p-value for departure from HWE)"/>
+    <tableColumn id="7" xr3:uid="{71AA7B94-3A81-4FE5-93CD-594193E5970C}" name="Reference"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B1A12B-9E9B-41C2-B163-13B3362841C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E63D4AB-FBC9-41B9-9BC5-239B6B69BE5D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +507,8 @@
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,7 +589,7 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0.74139999999999995</v>
@@ -629,6 +634,9 @@
       <c r="B6">
         <v>53</v>
       </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
       <c r="D6">
         <v>0.83530000000000004</v>
       </c>
@@ -649,6 +657,9 @@
       <c r="B7">
         <v>53</v>
       </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
       <c r="D7">
         <v>0.73880000000000001</v>
       </c>
@@ -669,6 +680,9 @@
       <c r="B8">
         <v>53</v>
       </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
       <c r="D8">
         <v>0.80940000000000001</v>
       </c>
@@ -690,7 +704,7 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>0.67079999999999995</v>
@@ -712,6 +726,9 @@
       <c r="B10">
         <v>53</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
       <c r="D10">
         <v>0.46710000000000002</v>
       </c>
@@ -732,6 +749,9 @@
       <c r="B11">
         <v>53</v>
       </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
       <c r="D11">
         <v>0.68100000000000005</v>
       </c>
@@ -752,6 +772,9 @@
       <c r="B12">
         <v>53</v>
       </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
       <c r="D12">
         <v>0.89019999999999999</v>
       </c>
@@ -772,6 +795,9 @@
       <c r="B13">
         <v>58</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13">
         <v>0.46539999999999998</v>
       </c>
@@ -792,6 +818,9 @@
       <c r="B14">
         <v>57</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="D14">
         <v>0.6734</v>
       </c>
@@ -813,7 +842,7 @@
         <v>53</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>0.22520000000000001</v>
@@ -836,7 +865,7 @@
         <v>58</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0.63660000000000005</v>
@@ -859,7 +888,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>0.73850000000000005</v>
@@ -875,7 +904,427 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B1A12B-9E9B-41C2-B163-13B3362841C3}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G17" sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="E2">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="E3">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="E4">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="E5">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="E6">
+        <v>-8.2100000000000006E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="E8">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="E9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="E10">
+        <v>5.91E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E11">
+        <v>-6.8699999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="E12">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="E13">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0.6734</v>
+      </c>
+      <c r="E14">
+        <v>-3.09E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="E15">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="E17">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>